--- a/public/template_kategori.xlsx
+++ b/public/template_kategori.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BF323A-C980-418A-9FCC-1355F4214AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D193DF-74FD-43E4-9870-F669E19A275B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11436" yWindow="0" windowWidth="11700" windowHeight="12336" xr2:uid="{0D4CA07C-D14C-4C68-B4FC-7AAF55D8D7BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D4CA07C-D14C-4C68-B4FC-7AAF55D8D7BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>kategori_id</t>
   </si>
@@ -45,16 +45,10 @@
     <t>barang_nama</t>
   </si>
   <si>
-    <t>K006</t>
+    <t>K008</t>
   </si>
   <si>
-    <t>K007</t>
-  </si>
-  <si>
-    <t>Makanan Berat</t>
-  </si>
-  <si>
-    <t>Minuman Berat</t>
+    <t>dessert</t>
   </si>
 </sst>
 </file>
@@ -421,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD25DAF-0D10-44D5-8C70-4208DE887C69}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,24 +445,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
